--- a/MWR/Source/MWRSolution/MWRBackOffice/Pages/BO/Sys/1.xlsx
+++ b/MWR/Source/MWRSolution/MWRBackOffice/Pages/BO/Sys/1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="员工信息" sheetId="2" r:id="rId1"/>
@@ -529,14 +529,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -544,7 +544,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -909,7 +909,7 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
@@ -1084,11 +1084,11 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1251,14 +1251,14 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1392,15 +1392,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1458,11 +1458,11 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1516,15 +1516,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
